--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2028643.504151109</v>
+        <v>-2031321.389549969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179.79718039468</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>23.41994504831871</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>106.6864746180468</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>134.0608289923289</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8617208002639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>259.658084792058</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>58.98175473632102</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>118.2587517864214</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>116.834612197964</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>265.9966730780155</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>272.274192517812</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>114.4535030721042</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.04646546629416</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673014</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>78.6882778203391</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>37.40501058442996</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>87.71169339385418</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,16 +2713,16 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002292</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.3843300102556</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C2" t="n">
-        <v>837.3843300102556</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="D2" t="n">
-        <v>837.3843300102556</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="E2" t="n">
-        <v>837.3843300102556</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2329.87600515082</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2076.294944415</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.232057071429</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.463401801315</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.997643540235</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.997643540235</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.189556406156</v>
+        <v>1557.474654166429</v>
       </c>
       <c r="C4" t="n">
-        <v>348.2533734782492</v>
+        <v>1422.059675386299</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>1557.474654166429</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.8380212363958</v>
+        <v>1557.474654166429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>884.1849331278574</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886157</v>
+        <v>515.2224161874458</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818652</v>
+        <v>515.2224161874458</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1375272818652</v>
+        <v>129.4341635892015</v>
       </c>
       <c r="F5" t="n">
-        <v>325.1920265326617</v>
+        <v>122.4886628399981</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5276802973547</v>
+        <v>110.824316604691</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>110.824316604691</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,16 +4647,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>425.2941160078525</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>425.2941160078525</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>425.2941160078525</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>425.2941160078525</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>425.2941160078525</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1415.847953794156</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1192.869472988892</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1192.869472988892</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.34930177307</v>
+        <v>938.1849847830049</v>
       </c>
       <c r="W7" t="n">
-        <v>834.9321317361096</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X7" t="n">
-        <v>606.9425808380922</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.9425808380922</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838974</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1089.848573898563</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1089.848573898563</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1089.848573898563</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2734.312968633809</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878908</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903096</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1019.299125305285</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>1019.299125305285</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1019.299125305285</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>798.5065461617548</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.260321675049</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>862.3241387471426</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>712.2074993348068</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>564.2944057524137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.908786505289</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5601,10 +5601,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.9255961109956</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2342.134540858491</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1833.45784922563</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1578.773361019743</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1289.356190982783</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1061.366640084765</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.5740609412353</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2291.319709737861</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2071.718244760802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1782.643018104999</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1527.958529899112</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1238.541359862152</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1010.551808964134</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.7592298206043</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6136,10 +6136,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345477</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6464,19 +6464,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345464</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6877,31 +6877,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,49 +7567,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.9366612688006</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>338.8005407570524</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>33.1859921062989</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.72293255183092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194277</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>66.73277020259215</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.31459260779042</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1088067.982339081</v>
+        <v>1088067.98233908</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287323</v>
+        <v>64921.82232287329</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="F2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38655.05046517607</v>
+        <v>38655.05046517601</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,16 +26430,16 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.20035675661</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756608</v>
-      </c>
       <c r="J4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.0596198501</v>
       </c>
       <c r="K4" t="n">
         <v>17328.05961985006</v>
@@ -26448,10 +26448,10 @@
         <v>17328.05961985005</v>
       </c>
       <c r="M4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="N4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985009</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985006</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1181422.784158067</v>
+        <v>-1181852.343024656</v>
       </c>
       <c r="C6" t="n">
-        <v>-147559.8691455188</v>
+        <v>-147559.8691455189</v>
       </c>
       <c r="D6" t="n">
-        <v>-306981.1391434108</v>
+        <v>-306981.1391434107</v>
       </c>
       <c r="E6" t="n">
-        <v>-355157.5320190183</v>
+        <v>-355192.269944454</v>
       </c>
       <c r="F6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709876</v>
       </c>
       <c r="G6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709882</v>
       </c>
       <c r="H6" t="n">
-        <v>-29745.07021166311</v>
+        <v>-29779.80813709878</v>
       </c>
       <c r="I6" t="n">
-        <v>-29745.07021166314</v>
+        <v>-29779.80813709882</v>
       </c>
       <c r="J6" t="n">
-        <v>-225420.8942909513</v>
+        <v>-225420.8942909514</v>
       </c>
       <c r="K6" t="n">
-        <v>-38387.99848733716</v>
+        <v>-38387.99848733709</v>
       </c>
       <c r="L6" t="n">
-        <v>-86681.96849552781</v>
+        <v>-86681.96849552779</v>
       </c>
       <c r="M6" t="n">
-        <v>-123443.0264228489</v>
+        <v>-123443.026422849</v>
       </c>
       <c r="N6" t="n">
+        <v>-38387.99848733711</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-57815.7164809689</v>
+      </c>
+      <c r="P6" t="n">
         <v>-38387.99848733709</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-57815.7164809688</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-38387.99848733707</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.3272169675829</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>99.97171036218697</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>41.36046777034738</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>6.728157936149444</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>48.04784825838274</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>77.82784816377341</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>140.879372663696</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>55.47806595232288</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>137.6841402517238</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>211.663189922743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010443</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36768,7 +36768,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
         <v>144.686904791938</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
